--- a/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-practitioner.xlsx
+++ b/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T06:40:04+00:00</t>
+    <t>2025-09-25T07:29:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-practitioner.xlsx
+++ b/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T07:29:00+00:00</t>
+    <t>2025-10-20T12:22:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil de la ressource FRCorePractitionerProfile permettant de représenter un Profesionnel.</t>
+    <t>Profil de la ressource FRCorePractitionerProfile permettant de représenter un professionnel du médicosocial dans le cadre de TDDUI. Le profil AsPractitionerRoleProfile n'a pas été utilisé car il comportait trop de contraintes non présentes dans les DUI.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -234,7 +234,7 @@
     <t>Constraint(s)</t>
   </si>
   <si>
-    <t>Mapping: Professionnel</t>
+    <t>Mapping: Modèle de contenu DUI</t>
   </si>
   <si>
     <t>Mapping: HL7 v2 Mapping</t>
@@ -2148,7 +2148,7 @@
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="21.94140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="48.16015625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="43.68359375" customWidth="true" bestFit="true"/>

--- a/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-practitioner.xlsx
+++ b/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T12:22:03+00:00</t>
+    <t>2025-10-21T07:57:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-practitioner.xlsx
+++ b/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T07:57:56+00:00</t>
+    <t>2025-10-23T07:47:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
